--- a/relatorios/repasses_liberados/dentistas/11458075427/2023-08-25_relatorio_repasses_11458075427.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11458075427/2023-08-25_relatorio_repasses_11458075427.xlsx
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -10567,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -11447,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N241">
         <v>0</v>
@@ -11491,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N242">
         <v>0</v>
@@ -11623,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -14659,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N314">
         <v>0</v>
@@ -14703,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -14747,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N316">
         <v>0</v>
@@ -15407,7 +15407,7 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N331">
         <v>0</v>
@@ -15759,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N339">
         <v>0</v>
@@ -16375,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="M353">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N353">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/11458075427/2023-08-25_relatorio_repasses_11458075427.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11458075427/2023-08-25_relatorio_repasses_11458075427.xlsx
@@ -1987,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N26">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2691,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N42">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3527,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3571,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N62">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N67">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N68">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4011,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N72">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4055,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4407,10 +4407,10 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N81">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4451,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N82">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4495,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4539,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N84">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4627,10 +4627,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N86">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5111,10 +5111,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N97">
-        <v>0.03</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5155,10 +5155,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N98">
-        <v>7.257</v>
+        <v>9.676000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5199,10 +5199,10 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N99">
-        <v>7.257</v>
+        <v>9.676000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5243,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N100">
-        <v>6.588</v>
+        <v>8.784000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N101">
-        <v>9.893999999999998</v>
+        <v>13.192</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5331,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N102">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5419,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5551,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N107">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5595,10 +5595,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N108">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5639,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N109">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5683,10 +5683,10 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N110">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5815,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N113">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5903,10 +5903,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N115">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5947,10 +5947,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N116">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6519,10 +6519,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N129">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6563,10 +6563,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N130">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6959,10 +6959,10 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N139">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7047,10 +7047,10 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N141">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -7223,10 +7223,10 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N145">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7267,10 +7267,10 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N146">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -7311,10 +7311,10 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N147">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7355,10 +7355,10 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N148">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7575,10 +7575,10 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N153">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N154">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9115,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -10523,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -10567,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -10787,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -11271,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -11447,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N241">
         <v>0</v>
@@ -11535,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N243">
         <v>0</v>
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -11623,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N248">
         <v>0</v>
@@ -12591,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="M267">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N267">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="M268">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N268">
         <v>0</v>
@@ -12767,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N271">
         <v>0</v>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -13735,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N293">
         <v>0</v>
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N294">
         <v>0</v>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N295">
         <v>0</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N298">
         <v>0</v>
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -14351,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -14439,7 +14439,7 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N309">
         <v>0</v>
@@ -14483,7 +14483,7 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -14527,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N311">
         <v>0</v>
@@ -14571,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N312">
         <v>0</v>
@@ -14615,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N313">
         <v>0</v>
@@ -14747,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N316">
         <v>0</v>
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N336">
         <v>0</v>
@@ -15759,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N339">
         <v>0</v>
@@ -15803,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N340">
         <v>0</v>
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N341">
         <v>0</v>
@@ -16375,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="M353">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N353">
         <v>0</v>
@@ -16463,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N355">
         <v>0</v>
